--- a/scripts/generate_CBDB_address_belongs_combination_pairs/input/ADDR_BELONGS_DATA_small.xlsx
+++ b/scripts/generate_CBDB_address_belongs_combination_pairs/input/ADDR_BELONGS_DATA_small.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudos\Dropbox\cbdb_helpers\CBDB Programs\create_two_levels_addr_combination_list\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudos\Dropbox\cbdb_helpers\CBDB Programs\generate_CBDB_address_belongs_combination_pairs\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0859890F-3AE1-487F-9664-F44BBCA74C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98861B39-680C-4B4C-B494-6586659D3F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="1710" windowWidth="21600" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDR_BELONGS_DATA" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>c_addr_id</t>
   </si>
@@ -47,19 +47,32 @@
   </si>
   <si>
     <t>c_notes</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,15 +91,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_ADDR_BELONGS_DATA" xfId="1" xr:uid="{690CCE5C-9FFE-4226-A62B-EF6E3EEA2A5E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,139 +493,29 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1">
+        <v>18197</v>
+      </c>
+      <c r="B2" s="1">
+        <v>18183</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1280</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1367</v>
+      </c>
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>1949</v>
-      </c>
-      <c r="D2">
-        <v>2005</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1949</v>
-      </c>
-      <c r="D3">
-        <v>2005</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1949</v>
-      </c>
-      <c r="D4">
-        <v>2005</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1949</v>
-      </c>
-      <c r="D5">
-        <v>2005</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1949</v>
-      </c>
-      <c r="D6">
-        <v>2005</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1949</v>
-      </c>
-      <c r="D7">
-        <v>2005</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1949</v>
-      </c>
-      <c r="D8">
-        <v>2005</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1949</v>
-      </c>
-      <c r="D9">
-        <v>2005</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/generate_CBDB_address_belongs_combination_pairs/input/ADDR_BELONGS_DATA_small.xlsx
+++ b/scripts/generate_CBDB_address_belongs_combination_pairs/input/ADDR_BELONGS_DATA_small.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudos\Dropbox\cbdb_helpers\CBDB Programs\generate_CBDB_address_belongs_combination_pairs\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98861B39-680C-4B4C-B494-6586659D3F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA67B2AD-0029-4CE2-935C-7D32B8BAEC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4890" yWindow="1710" windowWidth="21600" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,16 +494,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>18197</v>
+        <v>7940</v>
       </c>
       <c r="B2" s="1">
-        <v>18183</v>
+        <v>7931</v>
       </c>
       <c r="C2" s="1">
-        <v>1280</v>
+        <v>1903</v>
       </c>
       <c r="D2" s="1">
-        <v>1367</v>
+        <v>1911</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
